--- a/Final Version/Data/Prep Config.xlsx
+++ b/Final Version/Data/Prep Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sai Sushma\Documents\UiPath\Refactor\PreBuilts_ProtectOrUnprotectExcelFile\Final Version\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\R2G In Progress\PreBuilts_ProtectOrUnprotectExcelFile\Final Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234CB623-097A-4561-A3BD-5787344B9D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C348D-9E07-4D5B-A6B6-17D3E695A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24540" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -118,15 +118,6 @@
     <t>First_Run</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Place description here</t>
-  </si>
-  <si>
     <t>Determines if the automation is being executed for the first time from the Assistant. If set to True, the Form will display regardless of whether the Check_To_Hide_Menu argument is checked in the Assistant.
 By default, this will always be True during the first run of an automation (including when a new version is published). After the first run, this value is changed to False and the Form will not display if the Check_To_Hide_Menu argument is checked in the Assistant.
 This ensures that the Form will always display on the first run of a newly published version.</t>
@@ -144,34 +135,22 @@
     <t>Automation_Description</t>
   </si>
   <si>
-    <t>BusinessException1</t>
-  </si>
-  <si>
-    <t>This is the message displayed to the user for this specific business exception</t>
-  </si>
-  <si>
-    <t>Message displayed to user.</t>
-  </si>
-  <si>
     <t>Name of the automation project.</t>
   </si>
   <si>
     <t>Hide_Final_Success_Message</t>
   </si>
   <si>
-    <t>OtherVariables1</t>
-  </si>
-  <si>
     <t>Boolean flag to determine whether to display final success message at the end of the automation</t>
   </si>
   <si>
-    <t>Protect Or Unprotect Excel Files</t>
+    <t>Protect And Unprotect Excel Workbooks</t>
   </si>
   <si>
-    <t xml:space="preserve">This automation allows the user to protect an Excel workbook or folder of Excel workbooks with the same password. The automation also allows the user to unprotect an Excel workbook or folder of Excel workbooks by providing the password. </t>
+    <t>https://marketplace.uipath.com/listings/Protect-And-Unprotect-Excel-Workbooks</t>
   </si>
   <si>
-    <t>https://marketplace.uipath.com/</t>
+    <t>This automation protects Excel workbooks with a password or unprotects them using the designated password.</t>
   </si>
 </sst>
 </file>
@@ -606,18 +585,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="39.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="89.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="2" width="39.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="89.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,18 +611,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A2" s="6"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="UahCpfqGzWsUFCW/3602SQ2UUKyutE/+1aWKJdPcdlhNwqOZNLIDC41kCJj+YIZU9VYG0oDa5WTq8KPJpnlMPg==" saltValue="xB5dYAnONfnfGvLUuXvpIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -660,18 +628,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A1B56-8EDC-4D2F-8EE4-356BB133E1F7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="40.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="2" width="40.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,15 +651,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A2" s="6"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="KeXDKMv6iXOopkTGuFnqx/hQd2ZwZSKZkH2eQQteDg/2odca37WN4eobDFjUMnVQvp5cnsJb1BptYD4S3yzG+g==" saltValue="tbzZdlBabD83bzuNnARUYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -703,17 +663,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="43" style="10" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="5" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="81.42578125" style="5" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -750,7 +710,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="129.6">
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="150">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -758,39 +718,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1" ht="14.4">
+    <row r="3" spans="1:26" s="7" customFormat="1">
       <c r="A3" s="11"/>
       <c r="B3" s="8"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:26" s="7" customFormat="1" ht="14.4">
+    <row r="4" spans="1:26" s="7" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="7" customFormat="1" ht="14.4">
+    <row r="5" spans="1:26" s="7" customFormat="1">
       <c r="A5" s="11"/>
       <c r="B5" s="8"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -799,13 +759,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -814,13 +774,13 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1849,13 +1809,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" style="5" customWidth="1"/>
     <col min="2" max="2" width="51" style="5" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" style="5" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="75.42578125" style="5" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">
@@ -2949,13 +2909,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="5" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" style="5" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="5"/>
+    <col min="1" max="1" width="31.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="5" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1">

--- a/Final Version/Data/Prep Config.xlsx
+++ b/Final Version/Data/Prep Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\R2G In Progress\PreBuilts_ProtectOrUnprotectExcelFile\Final Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98C348D-9E07-4D5B-A6B6-17D3E695A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7A40C-705F-4E54-94E8-A22C899E9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24540" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24540" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="4" r:id="rId1"/>
@@ -144,13 +144,13 @@
     <t>Boolean flag to determine whether to display final success message at the end of the automation</t>
   </si>
   <si>
-    <t>Protect And Unprotect Excel Workbooks</t>
+    <t>This automation protects Excel workbooks with a password or unprotects them using the designated password.</t>
   </si>
   <si>
-    <t>https://marketplace.uipath.com/listings/Protect-And-Unprotect-Excel-Workbooks</t>
+    <t>Protect And Unprotect My Excel Workbook</t>
   </si>
   <si>
-    <t>This automation protects Excel workbooks with a password or unprotects them using the designated password.</t>
+    <t>https://marketplace.uipath.com/listings/Protect-And-Unprotect-My-Excel-Workbook</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A1B56-8EDC-4D2F-8EE4-356BB133E1F7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -747,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>32</v>
@@ -762,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -777,7 +777,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>

--- a/Final Version/Data/Prep Config.xlsx
+++ b/Final Version/Data/Prep Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuan.nguyen\Desktop\R2G In Progress\PreBuilts_ProtectOrUnprotectExcelFile\Final Version\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7A40C-705F-4E54-94E8-A22C899E9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF1AA48-82C2-4E7A-AF24-C33B7C22DC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24540" yWindow="2925" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="4" r:id="rId1"/>
@@ -147,10 +147,10 @@
     <t>This automation protects Excel workbooks with a password or unprotects them using the designated password.</t>
   </si>
   <si>
-    <t>Protect And Unprotect My Excel Workbook</t>
+    <t>Protect and unprotect my Excel workbook</t>
   </si>
   <si>
-    <t>https://marketplace.uipath.com/listings/Protect-And-Unprotect-My-Excel-Workbook</t>
+    <t>https://marketplace.uipath.com/listings/Protect-and-unprotect-my-Excel-workbook</t>
   </si>
 </sst>
 </file>
